--- a/biology/Botanique/Galbulimima_belgraveana/Galbulimima_belgraveana.xlsx
+++ b/biology/Botanique/Galbulimima_belgraveana/Galbulimima_belgraveana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Galbulimima belgraveana est une espèce de la famille des Himantandraceae. C'est une plante hallucinogène. Son nom commun est agara[1] et white magnolia.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galbulimima belgraveana est une espèce de la famille des Himantandraceae. C'est une plante hallucinogène. Son nom commun est agara et white magnolia.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante elle-même atteint environ 3 m, elle n'a pas de pétales et ses fleurs sont de couleur jaune-brun.
 </t>
@@ -542,11 +556,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Papous (qui ont tendance à consommer le plus ce médicament) font bouillir l'écorce et les feuilles avec une autre plante, appelée Homalomena[2], afin de faire du thé. Ce thé conduit à un sommeil profond, dans lequel on dit que des rêves et des visions vives se produisent. 
-Plusieurs alcaloïdes psychoactifs structurellement liés à l'himbacine, un antagoniste des récepteurs muscariniques, ont été isolés de la plante, mais le principal constituant psychoactif responsable des effets hallucinogènes de la plante n'a pas encore été identifié. Le Scripps Research Institute a découvert une nouvelle méthode de synthèse des composés de Galbulimima sp. (G. belgraveana) pour des applications psychotropes[3].
-Le fruit est mangé par les casoars et les pigeons des forêts tropicales[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Papous (qui ont tendance à consommer le plus ce médicament) font bouillir l'écorce et les feuilles avec une autre plante, appelée Homalomena, afin de faire du thé. Ce thé conduit à un sommeil profond, dans lequel on dit que des rêves et des visions vives se produisent. 
+Plusieurs alcaloïdes psychoactifs structurellement liés à l'himbacine, un antagoniste des récepteurs muscariniques, ont été isolés de la plante, mais le principal constituant psychoactif responsable des effets hallucinogènes de la plante n'a pas encore été identifié. Le Scripps Research Institute a découvert une nouvelle méthode de synthèse des composés de Galbulimima sp. (G. belgraveana) pour des applications psychotropes.
+Le fruit est mangé par les casoars et les pigeons des forêts tropicales.
 Cet arbre est également utilisé pour son bois.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[5] : Australie, Indonésie, Papouasie-Nouvelle-Guinée, Îles Salomon.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Australie, Indonésie, Papouasie-Nouvelle-Guinée, Îles Salomon.
 </t>
         </is>
       </c>
@@ -607,11 +625,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Galbulimima belgraveana (F.Muell.) Sprague[6].
-L'espèce a été initialement classée dans le genre Eupomatia sous le basionyme Eupomatia belgraveana F.Muell.[6].
-Galbulimima belgraveana a pour synonymes[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Galbulimima belgraveana (F.Muell.) Sprague.
+L'espèce a été initialement classée dans le genre Eupomatia sous le basionyme Eupomatia belgraveana F.Muell..
+Galbulimima belgraveana a pour synonymes :
 Eupomatia belgraveana F.Muell.
 Galbulimima baccata F.M.Bailey
 Galbulimima nitida (Baker fil. &amp; Norman) Sprague
